--- a/my_sop/cleaning/model/plugins/batch362/程序/zfh_scirpt/data/美发四级关键词.xlsx
+++ b/my_sop/cleaning/model/plugins/batch362/程序/zfh_scirpt/data/美发四级关键词.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_sop\my_sop\cleaning\model\plugins\batch362\程序\zfh_scirpt\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EB85E5-D6F5-4A31-B9E6-037A763AEFA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="category.rule2" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">category.rule2!$A$1:$W$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'category.rule2'!$A$1:$W$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -19,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="76">
   <si>
     <t>规则组</t>
   </si>
@@ -228,19 +234,43 @@
   </si>
   <si>
     <t>普通冲洗护发素/润发乳</t>
+  </si>
+  <si>
+    <t>乳液面霜</t>
+  </si>
+  <si>
+    <t>Cream</t>
+  </si>
+  <si>
+    <t>面霜|乳霜|凝霜|万紫千红.*润肤脂|谷雨.*奶罐|金罐|蓝罐|白罐|奶罐</t>
+  </si>
+  <si>
+    <t>贵妇膏|梨花膏|龙血膏|珍珠膏|乳膏|绷带|痘膏|鱼子膏|美容膏|祛斑膏</t>
+  </si>
+  <si>
+    <t>Lotion</t>
+  </si>
+  <si>
+    <t>保湿乳|抗皱乳|全能乳|清爽乳液|祛痘凝胶</t>
+  </si>
+  <si>
+    <t>美丽伞灵芝多肽布丁</t>
+  </si>
+  <si>
+    <t>霜|膏|绷带|罐</t>
+  </si>
+  <si>
+    <t>美丽伞雅歌大蓝瓶</t>
+  </si>
+  <si>
+    <t>乳|露|凝露|醒肤露|保湿露|啫喱</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,158 +294,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,13 +315,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,198 +345,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -668,254 +373,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -926,130 +389,199 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1060,7 +592,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1088,154 +620,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1493,31 +911,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:W40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="16" width="7" customWidth="1"/>
     <col min="17" max="17" width="35" customWidth="1"/>
-    <col min="21" max="21" width="37.65" customWidth="1"/>
+    <col min="21" max="21" width="37.625" customWidth="1"/>
     <col min="22" max="22" width="21.5" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49.5" spans="1:23">
+    <row r="1" spans="1:23" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.5" spans="1:22">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>850</v>
       </c>
@@ -1628,7 +1046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>850</v>
       </c>
@@ -1667,7 +1085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>850</v>
       </c>
@@ -1704,7 +1122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>850</v>
       </c>
@@ -1741,7 +1159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>850</v>
       </c>
@@ -1778,7 +1196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>850</v>
       </c>
@@ -1815,7 +1233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>850</v>
       </c>
@@ -1854,7 +1272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>850</v>
       </c>
@@ -1891,7 +1309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>850</v>
       </c>
@@ -1930,7 +1348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>850</v>
       </c>
@@ -1967,7 +1385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>850</v>
       </c>
@@ -2006,7 +1424,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>850</v>
       </c>
@@ -2043,7 +1461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>851</v>
       </c>
@@ -2082,7 +1500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>851</v>
       </c>
@@ -2121,7 +1539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>851</v>
       </c>
@@ -2160,7 +1578,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="17" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>851</v>
       </c>
@@ -2199,7 +1617,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>851</v>
       </c>
@@ -2236,7 +1654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="19" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>851</v>
       </c>
@@ -2273,7 +1691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="20" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>851</v>
       </c>
@@ -2310,7 +1728,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="21" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>851</v>
       </c>
@@ -2347,7 +1765,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="22" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>852</v>
       </c>
@@ -2386,7 +1804,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="23" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>852</v>
       </c>
@@ -2423,7 +1841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="24" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>852</v>
       </c>
@@ -2460,7 +1878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="25" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>853</v>
       </c>
@@ -2497,7 +1915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:22">
+    <row r="26" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>854</v>
       </c>
@@ -2537,7 +1955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="27" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>854</v>
       </c>
@@ -2576,7 +1994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="28" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>854</v>
       </c>
@@ -2613,7 +2031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="29" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>854</v>
       </c>
@@ -2650,7 +2068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="30" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>854</v>
       </c>
@@ -2687,7 +2105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="31" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>854</v>
       </c>
@@ -2724,7 +2142,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="32" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>854</v>
       </c>
@@ -2763,7 +2181,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="33" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>854</v>
       </c>
@@ -2800,7 +2218,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="34" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>854</v>
       </c>
@@ -2839,7 +2257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="35" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>854</v>
       </c>
@@ -2876,7 +2294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="36" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>854</v>
       </c>
@@ -2915,7 +2333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="37" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>854</v>
       </c>
@@ -2952,7 +2370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="38" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>855</v>
       </c>
@@ -2987,7 +2405,7 @@
       </c>
       <c r="U38" s="14"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="39" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>856</v>
       </c>
@@ -3022,7 +2440,7 @@
       </c>
       <c r="U39" s="14"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="16.5" spans="1:21">
+    <row r="40" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>857</v>
       </c>
@@ -3057,11 +2475,303 @@
       </c>
       <c r="U40" s="14"/>
     </row>
+    <row r="41" spans="1:21" ht="33" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>858</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U41" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="33" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>858</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>859</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U43" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>859</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U44" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>860</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U45" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>860</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U46" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>861</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U47" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>862</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U48" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:W40" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:W40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>